--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="66">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -183,6 +183,36 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;v&gt; ::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;v&gt; : &lt;v&gt; : &lt;v&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;v&gt; : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;v&gt; : &lt;v&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;v&gt; : &lt;v&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;v&gt; : &lt;v&gt; : &lt;v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROGFonts-Regular.otf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;v&gt; : &lt;v[&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;v&gt; : &lt;v&gt;543</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1474,7 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -1670,13 +1700,13 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="89">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -213,6 +213,75 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;v&gt; : &lt;v&gt;543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upcdl.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZWAdobeF.TTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAL : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAL : &lt;v&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ariblk.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAL : &lt;v&gt;&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAL : &lt;v&gt;&lt;v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,a-z,A-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResourceId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1510,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -1532,6 +1601,26 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7"/>
       <c r="K7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1680,16 +1769,16 @@
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1697,7 +1786,7 @@
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1">
       <c r="B5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -1706,14 +1795,46 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:10"/>
-    <row r="7" spans="2:10"/>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="8" spans="2:10"/>
     <row r="9" spans="2:10"/>
     <row r="10" spans="2:10"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="98">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -282,6 +282,33 @@
   </si>
   <si>
     <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,'.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;va</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00</t>
   </si>
 </sst>
 </file>
@@ -1616,9 +1643,11 @@
       <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G7"/>
+      <c r="G7" t="s">
+        <v>91</v>
+      </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7"/>
       <c r="K7" s="8" t="s">
@@ -1786,16 +1815,16 @@
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1">
       <c r="B5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1803,7 +1832,7 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>70</v>
@@ -1812,29 +1841,13 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-    </row>
+    <row r="7" spans="2:10"/>
     <row r="8" spans="2:10"/>
     <row r="9" spans="2:10"/>
     <row r="10" spans="2:10"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49861" uniqueCount="278">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -309,6 +309,546 @@
   </si>
   <si>
     <t xml:space="preserve">00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt; %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">impact.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitalt.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segoeuib.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WED236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THU236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEPTEMBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenSans-Bold.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUN&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MON&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUE&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WED&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THU&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRI&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAT&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-z,A-Z</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +2077,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -1570,17 +2110,19 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5"/>
+      <c r="H5" t="s">
+        <v>277</v>
+      </c>
       <c r="I5"/>
       <c r="K5" s="8" t="s">
         <v>1</v>
@@ -1601,17 +2143,19 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6"/>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
       <c r="I6"/>
       <c r="K6" s="8" t="s">
         <v>2</v>
@@ -1632,7 +2176,7 @@
         <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -1643,11 +2187,9 @@
       <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
-        <v>91</v>
-      </c>
+      <c r="G7"/>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="I7"/>
       <c r="K7" s="8" t="s">
@@ -1667,6 +2209,26 @@
       </c>
     </row>
     <row r="8" spans="2:15">
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8"/>
       <c r="K8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1682,6 +2244,26 @@
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="2:15">
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
       </c>
@@ -1699,6 +2281,26 @@
       </c>
     </row>
     <row r="10" spans="2:15">
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10"/>
       <c r="K10" s="12" t="s">
         <v>36</v>
       </c>
@@ -1714,9 +2316,49 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="2:15">
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11"/>
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="2:15">
+      <c r="B12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>277</v>
+      </c>
+      <c r="I12"/>
       <c r="L12" s="17" t="s">
         <v>35</v>
       </c>
@@ -1847,137 +2489,2267 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:10"/>
-    <row r="8" spans="2:10"/>
-    <row r="9" spans="2:10"/>
-    <row r="10" spans="2:10"/>
-    <row r="13" spans="2:10"/>
-    <row r="14" spans="2:10"/>
-    <row r="15" spans="2:10"/>
-    <row r="16" spans="2:10"/>
-    <row r="17" spans="4:4"/>
-    <row r="18" spans="4:4"/>
-    <row r="19" spans="4:4"/>
-    <row r="20" spans="4:4"/>
-    <row r="21" spans="4:4"/>
-    <row r="22" spans="4:4"/>
-    <row r="23" spans="4:4"/>
-    <row r="24" spans="4:4"/>
-    <row r="25" spans="4:4"/>
-    <row r="26" spans="4:4"/>
-    <row r="27" spans="4:4"/>
-    <row r="28" spans="4:4"/>
-    <row r="29" spans="4:4"/>
-    <row r="30" spans="4:4"/>
-    <row r="31" spans="4:4"/>
-    <row r="32" spans="4:4"/>
-    <row r="33" spans="4:4"/>
-    <row r="34" spans="4:4"/>
-    <row r="35" spans="4:4"/>
-    <row r="36" spans="4:4"/>
-    <row r="37" spans="4:4"/>
-    <row r="38" spans="4:4"/>
-    <row r="39" spans="4:4"/>
-    <row r="40" spans="4:4"/>
-    <row r="41" spans="4:4"/>
-    <row r="42" spans="4:4"/>
-    <row r="43" spans="4:4"/>
-    <row r="44" spans="4:4"/>
-    <row r="45" spans="4:4"/>
-    <row r="46" spans="4:4"/>
-    <row r="47" spans="4:4"/>
-    <row r="48" spans="4:4"/>
-    <row r="49" spans="4:4"/>
-    <row r="50" spans="4:4"/>
-    <row r="51" spans="4:4"/>
-    <row r="52" spans="4:4"/>
-    <row r="53" spans="4:4"/>
-    <row r="54" spans="4:4"/>
-    <row r="55" spans="4:4"/>
-    <row r="56" spans="4:4"/>
-    <row r="57" spans="4:4"/>
-    <row r="58" spans="4:4"/>
-    <row r="59" spans="4:4"/>
-    <row r="60" spans="4:4"/>
-    <row r="61" spans="4:4"/>
-    <row r="62" spans="4:4"/>
-    <row r="63" spans="4:4"/>
-    <row r="64" spans="4:4"/>
-    <row r="65" spans="4:4"/>
-    <row r="66" spans="4:4"/>
-    <row r="67" spans="4:4"/>
-    <row r="68" spans="4:4"/>
-    <row r="69" spans="4:4"/>
-    <row r="70" spans="4:4"/>
-    <row r="71" spans="4:4"/>
-    <row r="72" spans="4:4"/>
-    <row r="73" spans="4:4"/>
-    <row r="74" spans="4:4"/>
-    <row r="75" spans="4:4"/>
-    <row r="76" spans="4:4"/>
-    <row r="77" spans="4:4"/>
-    <row r="78" spans="4:4"/>
-    <row r="79" spans="4:4"/>
-    <row r="80" spans="4:4"/>
-    <row r="81" spans="4:4"/>
-    <row r="82" spans="4:4"/>
-    <row r="83" spans="4:4"/>
-    <row r="84" spans="4:4"/>
-    <row r="85" spans="4:4"/>
-    <row r="86" spans="4:4"/>
-    <row r="87" spans="4:4"/>
-    <row r="88" spans="4:4"/>
-    <row r="89" spans="4:4"/>
-    <row r="90" spans="4:4"/>
-    <row r="91" spans="4:4"/>
-    <row r="92" spans="4:4"/>
-    <row r="93" spans="4:4"/>
-    <row r="94" spans="4:4"/>
-    <row r="95" spans="4:4"/>
-    <row r="96" spans="4:4"/>
-    <row r="97" spans="4:4"/>
-    <row r="98" spans="4:4"/>
-    <row r="99" spans="4:4"/>
-    <row r="100" spans="4:4"/>
-    <row r="101" spans="4:4"/>
-    <row r="102" spans="4:4"/>
-    <row r="103" spans="4:4"/>
-    <row r="104" spans="4:4"/>
-    <row r="105" spans="4:4"/>
-    <row r="106" spans="4:4"/>
-    <row r="107" spans="4:4"/>
-    <row r="108" spans="4:4"/>
-    <row r="109" spans="4:4"/>
-    <row r="110" spans="4:4"/>
-    <row r="111" spans="4:4"/>
-    <row r="112" spans="4:4"/>
-    <row r="113" spans="4:4"/>
-    <row r="114" spans="4:4"/>
-    <row r="115" spans="4:4"/>
-    <row r="116" spans="4:4"/>
-    <row r="117" spans="4:4"/>
-    <row r="118" spans="4:4"/>
-    <row r="119" spans="4:4"/>
-    <row r="120" spans="4:4"/>
-    <row r="121" spans="4:4"/>
-    <row r="122" spans="4:4"/>
-    <row r="123" spans="4:4"/>
-    <row r="124" spans="4:4"/>
-    <row r="125" spans="4:4"/>
-    <row r="126" spans="4:4"/>
-    <row r="127" spans="4:4"/>
-    <row r="128" spans="4:4"/>
-    <row r="129" spans="4:4"/>
-    <row r="130" spans="4:4"/>
-    <row r="131" spans="4:4"/>
-    <row r="132" spans="4:4"/>
-    <row r="133" spans="4:4"/>
-    <row r="134" spans="4:4"/>
-    <row r="135" spans="4:4"/>
-    <row r="136" spans="4:4"/>
-    <row r="137" spans="4:4"/>
-    <row r="138" spans="4:4"/>
-    <row r="139" spans="4:4"/>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>264</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>265</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>268</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="B35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="B37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="B40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="B41" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="B42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="B44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="B45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="B46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="B47" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="B48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="B49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="B50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="B51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="B52" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="B53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="B54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="B55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="B56" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="B57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="B58" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="B59" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="B60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="B61" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="B62" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="B63" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" t="s">
+        <v>79</v>
+      </c>
+      <c r="F63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="B65" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="B66" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="B67" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="B68" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="B69" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="B70" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="B71" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="B72" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" t="s">
+        <v>95</v>
+      </c>
+      <c r="F72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="B73" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="B74" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" t="s">
+        <v>95</v>
+      </c>
+      <c r="F74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="B75" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="B76" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" t="s">
+        <v>95</v>
+      </c>
+      <c r="F76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="B77" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="B78" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="B79" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="B80" t="s">
+        <v>206</v>
+      </c>
+      <c r="C80" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" t="s">
+        <v>95</v>
+      </c>
+      <c r="F80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="B81" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="B82" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" t="s">
+        <v>95</v>
+      </c>
+      <c r="F82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="B83" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="B84" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" t="s">
+        <v>95</v>
+      </c>
+      <c r="F84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="B85" t="s">
+        <v>211</v>
+      </c>
+      <c r="C85" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" t="s">
+        <v>79</v>
+      </c>
+      <c r="F85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="B86" t="s">
+        <v>212</v>
+      </c>
+      <c r="C86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86" t="s">
+        <v>95</v>
+      </c>
+      <c r="F86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="B87" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" t="s">
+        <v>79</v>
+      </c>
+      <c r="F87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="B88" t="s">
+        <v>214</v>
+      </c>
+      <c r="C88" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88" t="s">
+        <v>103</v>
+      </c>
+      <c r="E88" t="s">
+        <v>95</v>
+      </c>
+      <c r="F88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="B89" t="s">
+        <v>215</v>
+      </c>
+      <c r="C89" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89" t="s">
+        <v>49</v>
+      </c>
+      <c r="E89" t="s">
+        <v>79</v>
+      </c>
+      <c r="F89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="B90" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90" t="s">
+        <v>103</v>
+      </c>
+      <c r="E90" t="s">
+        <v>95</v>
+      </c>
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="B91" t="s">
+        <v>217</v>
+      </c>
+      <c r="C91" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91" t="s">
+        <v>79</v>
+      </c>
+      <c r="F91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="B92" t="s">
+        <v>218</v>
+      </c>
+      <c r="C92" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92" t="s">
+        <v>95</v>
+      </c>
+      <c r="F92" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="B93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" t="s">
+        <v>49</v>
+      </c>
+      <c r="E93" t="s">
+        <v>79</v>
+      </c>
+      <c r="F93" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="B94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94" t="s">
+        <v>103</v>
+      </c>
+      <c r="E94" t="s">
+        <v>95</v>
+      </c>
+      <c r="F94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="B95" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" t="s">
+        <v>49</v>
+      </c>
+      <c r="E95" t="s">
+        <v>79</v>
+      </c>
+      <c r="F95" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="B96" t="s">
+        <v>222</v>
+      </c>
+      <c r="C96" t="s">
+        <v>169</v>
+      </c>
+      <c r="D96" t="s">
+        <v>103</v>
+      </c>
+      <c r="E96" t="s">
+        <v>95</v>
+      </c>
+      <c r="F96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="B97" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97" t="s">
+        <v>169</v>
+      </c>
+      <c r="D97" t="s">
+        <v>49</v>
+      </c>
+      <c r="E97" t="s">
+        <v>79</v>
+      </c>
+      <c r="F97" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="B98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C98" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98" t="s">
+        <v>103</v>
+      </c>
+      <c r="E98" t="s">
+        <v>95</v>
+      </c>
+      <c r="F98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="B99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" t="s">
+        <v>169</v>
+      </c>
+      <c r="D99" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99" t="s">
+        <v>79</v>
+      </c>
+      <c r="F99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="B100" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" t="s">
+        <v>169</v>
+      </c>
+      <c r="D100" t="s">
+        <v>103</v>
+      </c>
+      <c r="E100" t="s">
+        <v>95</v>
+      </c>
+      <c r="F100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="B101" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101" t="s">
+        <v>79</v>
+      </c>
+      <c r="F101" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="B102" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" t="s">
+        <v>169</v>
+      </c>
+      <c r="D102" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102" t="s">
+        <v>95</v>
+      </c>
+      <c r="F102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="B103" t="s">
+        <v>229</v>
+      </c>
+      <c r="C103" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103" t="s">
+        <v>49</v>
+      </c>
+      <c r="E103" t="s">
+        <v>79</v>
+      </c>
+      <c r="F103" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="B104" t="s">
+        <v>230</v>
+      </c>
+      <c r="C104" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>95</v>
+      </c>
+      <c r="F104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="B105" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" t="s">
+        <v>49</v>
+      </c>
+      <c r="E105" t="s">
+        <v>79</v>
+      </c>
+      <c r="F105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="B106" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" t="s">
+        <v>103</v>
+      </c>
+      <c r="E106" t="s">
+        <v>95</v>
+      </c>
+      <c r="F106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="B107" t="s">
+        <v>233</v>
+      </c>
+      <c r="C107" t="s">
+        <v>169</v>
+      </c>
+      <c r="D107" t="s">
+        <v>49</v>
+      </c>
+      <c r="E107" t="s">
+        <v>79</v>
+      </c>
+      <c r="F107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="B108" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" t="s">
+        <v>169</v>
+      </c>
+      <c r="D108" t="s">
+        <v>103</v>
+      </c>
+      <c r="E108" t="s">
+        <v>95</v>
+      </c>
+      <c r="F108" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="B109" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109" t="s">
+        <v>79</v>
+      </c>
+      <c r="F109" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="B110" t="s">
+        <v>236</v>
+      </c>
+      <c r="C110" t="s">
+        <v>169</v>
+      </c>
+      <c r="D110" t="s">
+        <v>103</v>
+      </c>
+      <c r="E110" t="s">
+        <v>95</v>
+      </c>
+      <c r="F110" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="B111" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" t="s">
+        <v>169</v>
+      </c>
+      <c r="D111" t="s">
+        <v>49</v>
+      </c>
+      <c r="E111" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="B112" t="s">
+        <v>238</v>
+      </c>
+      <c r="C112" t="s">
+        <v>43</v>
+      </c>
+      <c r="D112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E112" t="s">
+        <v>95</v>
+      </c>
+      <c r="F112" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="B113" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113" t="s">
+        <v>43</v>
+      </c>
+      <c r="D113" t="s">
+        <v>49</v>
+      </c>
+      <c r="E113" t="s">
+        <v>97</v>
+      </c>
+      <c r="F113" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="B114" t="s">
+        <v>240</v>
+      </c>
+      <c r="C114" t="s">
+        <v>43</v>
+      </c>
+      <c r="D114" t="s">
+        <v>49</v>
+      </c>
+      <c r="E114" t="s">
+        <v>56</v>
+      </c>
+      <c r="F114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="B115" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" t="s">
+        <v>43</v>
+      </c>
+      <c r="D115" t="s">
+        <v>103</v>
+      </c>
+      <c r="E115" t="s">
+        <v>95</v>
+      </c>
+      <c r="F115" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="B116" t="s">
+        <v>242</v>
+      </c>
+      <c r="C116" t="s">
+        <v>43</v>
+      </c>
+      <c r="D116" t="s">
+        <v>49</v>
+      </c>
+      <c r="E116" t="s">
+        <v>97</v>
+      </c>
+      <c r="F116" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="B117" t="s">
+        <v>243</v>
+      </c>
+      <c r="C117" t="s">
+        <v>43</v>
+      </c>
+      <c r="D117" t="s">
+        <v>103</v>
+      </c>
+      <c r="E117" t="s">
+        <v>95</v>
+      </c>
+      <c r="F117" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="B118" t="s">
+        <v>244</v>
+      </c>
+      <c r="C118" t="s">
+        <v>43</v>
+      </c>
+      <c r="D118" t="s">
+        <v>49</v>
+      </c>
+      <c r="E118" t="s">
+        <v>97</v>
+      </c>
+      <c r="F118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="B119" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" t="s">
+        <v>43</v>
+      </c>
+      <c r="D119" t="s">
+        <v>49</v>
+      </c>
+      <c r="E119" t="s">
+        <v>56</v>
+      </c>
+      <c r="F119" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="B120" t="s">
+        <v>246</v>
+      </c>
+      <c r="C120" t="s">
+        <v>43</v>
+      </c>
+      <c r="D120" t="s">
+        <v>103</v>
+      </c>
+      <c r="E120" t="s">
+        <v>95</v>
+      </c>
+      <c r="F120" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="B121" t="s">
+        <v>247</v>
+      </c>
+      <c r="C121" t="s">
+        <v>43</v>
+      </c>
+      <c r="D121" t="s">
+        <v>49</v>
+      </c>
+      <c r="E121" t="s">
+        <v>97</v>
+      </c>
+      <c r="F121" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="B122" t="s">
+        <v>248</v>
+      </c>
+      <c r="C122" t="s">
+        <v>43</v>
+      </c>
+      <c r="D122" t="s">
+        <v>103</v>
+      </c>
+      <c r="E122" t="s">
+        <v>95</v>
+      </c>
+      <c r="F122" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="B123" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123" t="s">
+        <v>43</v>
+      </c>
+      <c r="D123" t="s">
+        <v>49</v>
+      </c>
+      <c r="E123" t="s">
+        <v>97</v>
+      </c>
+      <c r="F123" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="B124" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" t="s">
+        <v>43</v>
+      </c>
+      <c r="D124" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124" t="s">
+        <v>56</v>
+      </c>
+      <c r="F124" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="B125" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" t="s">
+        <v>43</v>
+      </c>
+      <c r="D125" t="s">
+        <v>103</v>
+      </c>
+      <c r="E125" t="s">
+        <v>95</v>
+      </c>
+      <c r="F125" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="B126" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" t="s">
+        <v>43</v>
+      </c>
+      <c r="D126" t="s">
+        <v>49</v>
+      </c>
+      <c r="E126" t="s">
+        <v>97</v>
+      </c>
+      <c r="F126" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4">
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" t="s">
+        <v>255</v>
+      </c>
+      <c r="D127" t="s">
+        <v>49</v>
+      </c>
+      <c r="E127" t="s">
+        <v>256</v>
+      </c>
+      <c r="F127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4">
+      <c r="B128" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" t="s">
+        <v>103</v>
+      </c>
+      <c r="E128" t="s">
+        <v>95</v>
+      </c>
+      <c r="F128" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" t="s">
+        <v>43</v>
+      </c>
+      <c r="D129" t="s">
+        <v>49</v>
+      </c>
+      <c r="E129" t="s">
+        <v>97</v>
+      </c>
+      <c r="F129" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="B130" t="s">
+        <v>258</v>
+      </c>
+      <c r="C130" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" t="s">
+        <v>49</v>
+      </c>
+      <c r="E130" t="s">
+        <v>56</v>
+      </c>
+      <c r="F130" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="B131" t="s">
+        <v>259</v>
+      </c>
+      <c r="C131" t="s">
+        <v>43</v>
+      </c>
+      <c r="D131" t="s">
+        <v>103</v>
+      </c>
+      <c r="E131" t="s">
+        <v>95</v>
+      </c>
+      <c r="F131" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4">
+      <c r="B132" t="s">
+        <v>260</v>
+      </c>
+      <c r="C132" t="s">
+        <v>43</v>
+      </c>
+      <c r="D132" t="s">
+        <v>49</v>
+      </c>
+      <c r="E132" t="s">
+        <v>97</v>
+      </c>
+      <c r="F132" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="B133" t="s">
+        <v>261</v>
+      </c>
+      <c r="C133" t="s">
+        <v>42</v>
+      </c>
+      <c r="D133" t="s">
+        <v>49</v>
+      </c>
+      <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4">
+      <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" t="s">
+        <v>43</v>
+      </c>
+      <c r="D134" t="s">
+        <v>103</v>
+      </c>
+      <c r="E134" t="s">
+        <v>95</v>
+      </c>
+      <c r="F134" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4">
+      <c r="B135" t="s">
+        <v>271</v>
+      </c>
+      <c r="C135" t="s">
+        <v>43</v>
+      </c>
+      <c r="D135" t="s">
+        <v>49</v>
+      </c>
+      <c r="E135" t="s">
+        <v>97</v>
+      </c>
+      <c r="F135" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4">
+      <c r="B136" t="s">
+        <v>272</v>
+      </c>
+      <c r="C136" t="s">
+        <v>43</v>
+      </c>
+      <c r="D136" t="s">
+        <v>49</v>
+      </c>
+      <c r="E136" t="s">
+        <v>56</v>
+      </c>
+      <c r="F136" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4">
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+      <c r="C137" t="s">
+        <v>43</v>
+      </c>
+      <c r="D137" t="s">
+        <v>103</v>
+      </c>
+      <c r="E137" t="s">
+        <v>95</v>
+      </c>
+      <c r="F137" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="B138" t="s">
+        <v>274</v>
+      </c>
+      <c r="C138" t="s">
+        <v>43</v>
+      </c>
+      <c r="D138" t="s">
+        <v>49</v>
+      </c>
+      <c r="E138" t="s">
+        <v>97</v>
+      </c>
+      <c r="F138" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4">
+      <c r="B139" t="s">
+        <v>275</v>
+      </c>
+      <c r="C139" t="s">
+        <v>255</v>
+      </c>
+      <c r="D139" t="s">
+        <v>49</v>
+      </c>
+      <c r="E139" t="s">
+        <v>256</v>
+      </c>
+      <c r="F139" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="140" spans="4:4"/>
     <row r="141" spans="4:4"/>
     <row r="142" spans="4:4"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49861" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54126" uniqueCount="278">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -2823,7 +2823,7 @@
         <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>263</v>
+        <v>129</v>
       </c>
       <c r="F26" t="s">
         <v>50</v>
@@ -2840,7 +2840,7 @@
         <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
         <v>50</v>
@@ -2857,7 +2857,7 @@
         <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>265</v>
+        <v>134</v>
       </c>
       <c r="F28" t="s">
         <v>50</v>
@@ -2874,7 +2874,7 @@
         <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="F29" t="s">
         <v>50</v>
@@ -2891,7 +2891,7 @@
         <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>267</v>
+        <v>140</v>
       </c>
       <c r="F30" t="s">
         <v>50</v>
@@ -2908,7 +2908,7 @@
         <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>268</v>
+        <v>143</v>
       </c>
       <c r="F31" t="s">
         <v>50</v>
@@ -2925,7 +2925,7 @@
         <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="F32" t="s">
         <v>50</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54126" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73357" uniqueCount="294">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -849,6 +849,54 @@
   </si>
   <si>
     <t xml:space="preserve">a-z,A-Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;V&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;V&gt;%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;v&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-z,A-Z,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-z,A-Z,0-9</t>
   </si>
 </sst>
 </file>
@@ -2189,7 +2237,7 @@
       </c>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="I7"/>
       <c r="K7" s="8" t="s">
@@ -2224,7 +2272,9 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G8"/>
+      <c r="G8" t="s">
+        <v>288</v>
+      </c>
       <c r="H8" t="s">
         <v>80</v>
       </c>
@@ -2670,7 +2720,7 @@
         <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c r="F17" t="s">
         <v>50</v>
@@ -4750,11 +4800,91 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="4:4"/>
-    <row r="141" spans="4:4"/>
-    <row r="142" spans="4:4"/>
-    <row r="143" spans="4:4"/>
-    <row r="144" spans="4:4"/>
+    <row r="140" spans="4:4">
+      <c r="B140" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" t="s">
+        <v>49</v>
+      </c>
+      <c r="E140" t="s">
+        <v>119</v>
+      </c>
+      <c r="F140" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="B141" t="s">
+        <v>279</v>
+      </c>
+      <c r="C141" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" t="s">
+        <v>49</v>
+      </c>
+      <c r="E141" t="s">
+        <v>283</v>
+      </c>
+      <c r="F141" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="B142" t="s">
+        <v>284</v>
+      </c>
+      <c r="C142" t="s">
+        <v>100</v>
+      </c>
+      <c r="D142" t="s">
+        <v>103</v>
+      </c>
+      <c r="E142" t="s">
+        <v>290</v>
+      </c>
+      <c r="F142" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="B143" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143" t="s">
+        <v>42</v>
+      </c>
+      <c r="D143" t="s">
+        <v>49</v>
+      </c>
+      <c r="E143" t="s">
+        <v>288</v>
+      </c>
+      <c r="F143" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4">
+      <c r="B144" t="s">
+        <v>291</v>
+      </c>
+      <c r="C144" t="s">
+        <v>100</v>
+      </c>
+      <c r="D144" t="s">
+        <v>49</v>
+      </c>
+      <c r="E144" t="s">
+        <v>79</v>
+      </c>
+      <c r="F144" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="145" spans="4:4"/>
     <row r="146" spans="4:4"/>
     <row r="147" spans="4:4"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73357" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75095" uniqueCount="294">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="117" spans="4:4">
       <c r="B117" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C117" t="s">
         <v>43</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="118" spans="4:4">
       <c r="B118" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C118" t="s">
         <v>43</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="119" spans="4:4">
       <c r="B119" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C119" t="s">
         <v>43</v>
@@ -4462,13 +4462,13 @@
     </row>
     <row r="120" spans="4:4">
       <c r="B120" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C120" t="s">
         <v>43</v>
       </c>
       <c r="D120" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E120" t="s">
         <v>95</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="121" spans="4:4">
       <c r="B121" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C121" t="s">
         <v>43</v>
@@ -4496,16 +4496,16 @@
     </row>
     <row r="122" spans="4:4">
       <c r="B122" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C122" t="s">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="D122" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="E122" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="F122" t="s">
         <v>50</v>
@@ -4513,16 +4513,16 @@
     </row>
     <row r="123" spans="4:4">
       <c r="B123" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C123" t="s">
         <v>43</v>
       </c>
       <c r="D123" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="E123" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F123" t="s">
         <v>50</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="124" spans="4:4">
       <c r="B124" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C124" t="s">
         <v>43</v>
@@ -4539,7 +4539,7 @@
         <v>49</v>
       </c>
       <c r="E124" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="F124" t="s">
         <v>50</v>
@@ -4547,16 +4547,16 @@
     </row>
     <row r="125" spans="4:4">
       <c r="B125" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C125" t="s">
         <v>43</v>
       </c>
       <c r="D125" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="E125" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="F125" t="s">
         <v>50</v>
@@ -4564,16 +4564,16 @@
     </row>
     <row r="126" spans="4:4">
       <c r="B126" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C126" t="s">
         <v>43</v>
       </c>
       <c r="D126" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="E126" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F126" t="s">
         <v>50</v>
@@ -4581,16 +4581,16 @@
     </row>
     <row r="127" spans="4:4">
       <c r="B127" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C127" t="s">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="D127" t="s">
         <v>49</v>
       </c>
       <c r="E127" t="s">
-        <v>256</v>
+        <v>97</v>
       </c>
       <c r="F127" t="s">
         <v>50</v>
@@ -4598,16 +4598,16 @@
     </row>
     <row r="128" spans="4:4">
       <c r="B128" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D128" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="E128" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
       <c r="F128" t="s">
         <v>50</v>
@@ -4615,16 +4615,16 @@
     </row>
     <row r="129" spans="4:4">
       <c r="B129" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C129" t="s">
         <v>43</v>
       </c>
       <c r="D129" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="E129" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F129" t="s">
         <v>50</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="130" spans="4:4">
       <c r="B130" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C130" t="s">
         <v>43</v>
@@ -4641,7 +4641,7 @@
         <v>49</v>
       </c>
       <c r="E130" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="F130" t="s">
         <v>50</v>
@@ -4649,16 +4649,16 @@
     </row>
     <row r="131" spans="4:4">
       <c r="B131" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C131" t="s">
         <v>43</v>
       </c>
       <c r="D131" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="E131" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="F131" t="s">
         <v>50</v>
@@ -4666,16 +4666,16 @@
     </row>
     <row r="132" spans="4:4">
       <c r="B132" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C132" t="s">
         <v>43</v>
       </c>
       <c r="D132" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="E132" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F132" t="s">
         <v>50</v>
@@ -4683,16 +4683,16 @@
     </row>
     <row r="133" spans="4:4">
       <c r="B133" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D133" t="s">
         <v>49</v>
       </c>
       <c r="E133" t="s">
-        <v>262</v>
+        <v>97</v>
       </c>
       <c r="F133" t="s">
         <v>50</v>
@@ -4700,16 +4700,16 @@
     </row>
     <row r="134" spans="4:4">
       <c r="B134" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C134" t="s">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="D134" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="E134" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
         <v>50</v>
@@ -4717,16 +4717,16 @@
     </row>
     <row r="135" spans="4:4">
       <c r="B135" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D135" t="s">
         <v>49</v>
       </c>
       <c r="E135" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="F135" t="s">
         <v>50</v>
@@ -4734,16 +4734,16 @@
     </row>
     <row r="136" spans="4:4">
       <c r="B136" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D136" t="s">
         <v>49</v>
       </c>
       <c r="E136" t="s">
-        <v>56</v>
+        <v>283</v>
       </c>
       <c r="F136" t="s">
         <v>50</v>
@@ -4751,16 +4751,16 @@
     </row>
     <row r="137" spans="4:4">
       <c r="B137" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C137" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D137" t="s">
         <v>103</v>
       </c>
       <c r="E137" t="s">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="F137" t="s">
         <v>50</v>
@@ -4768,16 +4768,16 @@
     </row>
     <row r="138" spans="4:4">
       <c r="B138" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D138" t="s">
         <v>49</v>
       </c>
       <c r="E138" t="s">
-        <v>97</v>
+        <v>288</v>
       </c>
       <c r="F138" t="s">
         <v>50</v>
@@ -4785,106 +4785,26 @@
     </row>
     <row r="139" spans="4:4">
       <c r="B139" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="C139" t="s">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="D139" t="s">
         <v>49</v>
       </c>
       <c r="E139" t="s">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="F139" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="4:4">
-      <c r="B140" t="s">
-        <v>278</v>
-      </c>
-      <c r="C140" t="s">
-        <v>42</v>
-      </c>
-      <c r="D140" t="s">
-        <v>49</v>
-      </c>
-      <c r="E140" t="s">
-        <v>119</v>
-      </c>
-      <c r="F140" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="141" spans="4:4">
-      <c r="B141" t="s">
-        <v>279</v>
-      </c>
-      <c r="C141" t="s">
-        <v>42</v>
-      </c>
-      <c r="D141" t="s">
-        <v>49</v>
-      </c>
-      <c r="E141" t="s">
-        <v>283</v>
-      </c>
-      <c r="F141" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="142" spans="4:4">
-      <c r="B142" t="s">
-        <v>284</v>
-      </c>
-      <c r="C142" t="s">
-        <v>100</v>
-      </c>
-      <c r="D142" t="s">
-        <v>103</v>
-      </c>
-      <c r="E142" t="s">
-        <v>290</v>
-      </c>
-      <c r="F142" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="143" spans="4:4">
-      <c r="B143" t="s">
-        <v>289</v>
-      </c>
-      <c r="C143" t="s">
-        <v>42</v>
-      </c>
-      <c r="D143" t="s">
-        <v>49</v>
-      </c>
-      <c r="E143" t="s">
-        <v>288</v>
-      </c>
-      <c r="F143" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="144" spans="4:4">
-      <c r="B144" t="s">
-        <v>291</v>
-      </c>
-      <c r="C144" t="s">
-        <v>100</v>
-      </c>
-      <c r="D144" t="s">
-        <v>49</v>
-      </c>
-      <c r="E144" t="s">
-        <v>79</v>
-      </c>
-      <c r="F144" t="s">
-        <v>50</v>
-      </c>
-    </row>
+    <row r="140" spans="4:4"/>
+    <row r="141" spans="4:4"/>
+    <row r="142" spans="4:4"/>
+    <row r="143" spans="4:4"/>
+    <row r="144" spans="4:4"/>
     <row r="145" spans="4:4"/>
     <row r="146" spans="4:4"/>
     <row r="147" spans="4:4"/>
